--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2037178.19180198</v>
+        <v>1997214.908862786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914462</v>
+        <v>426806.9758914458</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -712,7 +712,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>76.69033543009959</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>121.7578019472044</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5270758240655413</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>191.921076379427</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.18375537072436</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,7 +1189,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8359655669564</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>174.0497804792065</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>76.21767119408624</v>
+        <v>94.67876730538809</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>56.22893659596764</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>43.76331341951682</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>148.4778748279248</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.28272660856686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>103.4698241248894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1691,10 +1691,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>41.16551806305293</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>223.3170660977949</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>50.07990960410254</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>80.26150471621813</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>75.02454074918104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>109.2563341216243</v>
       </c>
       <c r="G18" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>91.08816241971709</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>13.11177630711067</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.3603165399562</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>79.25531070110648</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>197.3743085277825</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>38.97663790996523</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2210,10 +2210,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>92.23683576037105</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>108.3027291048317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>127.301536884653</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>103.6773230083246</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.4530509812376</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>49.52842480434777</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>136.1433678062414</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>26.73110927253575</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>56.32740542811688</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>118.0190030499935</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4692693928243</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.327798975340468</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>14.98262955504962</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>62.74421521536814</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.7960563893071</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>183.4401280146814</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>96.98130569848196</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>75.46400677166039</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>35.33191364804642</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>120.764854730051</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1358366650514</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>220.881616978049</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>123.0508268606252</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>148.3090413277224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>113.1825648417889</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3677099213027</v>
+        <v>92.23683576037105</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>85.73493885277921</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.7809561473938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>39.75371538053316</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.2856259772189</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>17.44731957864663</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>17.90029553604479</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>85.73493885277921</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>223.6013893497571</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.3956199529897</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H42" t="n">
-        <v>52.18293713757069</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>126.6360092824242</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>77.01231993920348</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>55.94148848055843</v>
       </c>
       <c r="X44" t="n">
-        <v>32.82964174091671</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>16.29864623799213</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>31.28680070732945</v>
       </c>
       <c r="X46" t="n">
-        <v>47.239591316294</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.869396638348</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C3" t="n">
-        <v>210.869396638348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>210.869396638348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>210.869396638348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>210.869396638348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>210.869396638348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>97.50026104592733</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M3" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M3" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>210.869396638348</v>
+        <v>605.9173685443436</v>
       </c>
       <c r="X3" t="n">
-        <v>210.869396638348</v>
+        <v>605.9173685443436</v>
       </c>
       <c r="Y3" t="n">
-        <v>210.869396638348</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593.6552238493341</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>419.2021945682071</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>418.6697947459187</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
         <v>133.4044113554191</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>761.8705608694022</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="X6" t="n">
-        <v>761.8705608694022</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y6" t="n">
-        <v>761.8705608694022</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>706.487660844374</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>706.487660844374</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>706.487660844374</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>471.3355526126313</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2190.61837996229</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.630833301597</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D11" t="n">
-        <v>1755.365134694847</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5071,22 +5071,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>2190.61837996229</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.61837996229</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="X11" t="n">
-        <v>2190.61837996229</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="Y11" t="n">
-        <v>2190.61837996229</v>
+        <v>913.7064744192123</v>
       </c>
     </row>
     <row r="12">
@@ -5099,46 +5099,46 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>93.02511962298431</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>198.7974038739014</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>198.7974038739014</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.7974038739014</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210.9160074365284</v>
+        <v>940.4849092659258</v>
       </c>
       <c r="C14" t="n">
-        <v>210.9160074365284</v>
+        <v>571.5223923255141</v>
       </c>
       <c r="D14" t="n">
-        <v>210.9160074365284</v>
+        <v>571.5223923255141</v>
       </c>
       <c r="E14" t="n">
-        <v>210.9160074365284</v>
+        <v>571.5223923255141</v>
       </c>
       <c r="F14" t="n">
-        <v>210.9160074365284</v>
+        <v>571.5223923255141</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>153.3347263960879</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>153.3347263960879</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5314,16 +5314,16 @@
         <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>1386.161193962289</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W14" t="n">
-        <v>1033.392538692174</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X14" t="n">
-        <v>659.9267804310946</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y14" t="n">
-        <v>269.7874484552829</v>
+        <v>1327.084749330048</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>506.150210885985</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
         <v>506.150210885985</v>
@@ -5357,52 +5357,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.1511924226979</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C16" t="n">
-        <v>450.1511924226979</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D16" t="n">
-        <v>450.1511924226979</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>450.1511924226979</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>450.1511924226979</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5457,31 +5457,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>450.1511924226979</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>450.1511924226979</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
-        <v>450.1511924226979</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y16" t="n">
-        <v>450.1511924226979</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1323.932475581935</v>
+        <v>1263.355201987353</v>
       </c>
       <c r="C17" t="n">
-        <v>954.9699586415231</v>
+        <v>1263.355201987353</v>
       </c>
       <c r="D17" t="n">
-        <v>596.7042600347727</v>
+        <v>1263.355201987353</v>
       </c>
       <c r="E17" t="n">
-        <v>210.9160074365284</v>
+        <v>877.5669493891085</v>
       </c>
       <c r="F17" t="n">
-        <v>210.9160074365284</v>
+        <v>877.5669493891085</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9160074365284</v>
+        <v>459.3792834596822</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>129.8919795186422</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5548,19 +5548,19 @@
         <v>2040.094374027286</v>
       </c>
       <c r="U17" t="n">
-        <v>1786.314680039169</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V17" t="n">
-        <v>1786.314680039169</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W17" t="n">
-        <v>1786.314680039169</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X17" t="n">
-        <v>1786.314680039169</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y17" t="n">
-        <v>1710.532315646057</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>829.5376498283632</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>655.0846205472362</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>506.150210885985</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5606,7 +5606,7 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
         <v>1970.07121469245</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2130.931754709148</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1902.754250778862</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1667.602142547119</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1413.364785818918</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.513285613385</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>997.7529868484312</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>364.8099152070275</v>
+        <v>231.0001539525012</v>
       </c>
       <c r="C19" t="n">
-        <v>364.8099152070275</v>
+        <v>62.06397102459425</v>
       </c>
       <c r="D19" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5712,13 +5712,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>592.7994661050449</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>364.8099152070275</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.8099152070275</v>
+        <v>412.6486187827409</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>898.1272253239783</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="C20" t="n">
-        <v>898.1272253239783</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="D20" t="n">
-        <v>539.8615267172279</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E20" t="n">
-        <v>539.8615267172279</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F20" t="n">
-        <v>128.8756219276203</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G20" t="n">
-        <v>128.8756219276203</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H20" t="n">
-        <v>128.8756219276203</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2241.619638216262</v>
       </c>
       <c r="U20" t="n">
-        <v>2005.929284707482</v>
+        <v>1987.839944228145</v>
       </c>
       <c r="V20" t="n">
-        <v>1674.866397363912</v>
+        <v>1656.777056884574</v>
       </c>
       <c r="W20" t="n">
-        <v>1674.866397363912</v>
+        <v>1304.00840161446</v>
       </c>
       <c r="X20" t="n">
-        <v>1674.866397363912</v>
+        <v>930.5426433533802</v>
       </c>
       <c r="Y20" t="n">
-        <v>1284.7270653881</v>
+        <v>540.4033113775685</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>747.0928654156372</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>598.158455754386</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>438.9210007489305</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>292.3864427758155</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>154.3565552249771</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>318.2287647883252</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137185</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.169209714603</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.991705784318</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.839597552575</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.602240824373</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>412.9009368039367</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="U22" t="n">
-        <v>412.9009368039367</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V22" t="n">
-        <v>158.2164485980498</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W22" t="n">
         <v>48.81975253256327</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1375.543251186608</v>
+        <v>1266.560789373247</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.580734246196</v>
+        <v>897.5982724328353</v>
       </c>
       <c r="D23" t="n">
-        <v>1006.580734246196</v>
+        <v>539.3325738260849</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.580734246196</v>
+        <v>153.5443212278406</v>
       </c>
       <c r="F23" t="n">
-        <v>595.5948294565885</v>
+        <v>153.5443212278406</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4071635271623</v>
+        <v>153.5443212278406</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256328</v>
+        <v>153.5443212278406</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894855</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.282423226541</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U23" t="n">
-        <v>2152.282423226541</v>
+        <v>2005.929284707483</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.282423226541</v>
+        <v>2005.929284707483</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.282423226541</v>
+        <v>1653.160629437369</v>
       </c>
       <c r="X23" t="n">
-        <v>2152.282423226541</v>
+        <v>1653.160629437369</v>
       </c>
       <c r="Y23" t="n">
-        <v>1762.143091250729</v>
+        <v>1653.160629437369</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,19 +6101,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1560.24906426269</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.397564057157</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>1988.517870730811</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
-        <v>2006.979160866447</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>2136.449771081982</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>2374.023479227557</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>2440.987626628164</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U25" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V25" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W25" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>2390.95891470458</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>2170.16633556105</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1290.78269632715</v>
+        <v>1341.378161866803</v>
       </c>
       <c r="C26" t="n">
-        <v>1290.78269632715</v>
+        <v>1341.378161866803</v>
       </c>
       <c r="D26" t="n">
-        <v>1290.78269632715</v>
+        <v>983.1124632600529</v>
       </c>
       <c r="E26" t="n">
-        <v>904.9944437289059</v>
+        <v>597.3242106618086</v>
       </c>
       <c r="F26" t="n">
-        <v>494.0085389392984</v>
+        <v>186.338305872201</v>
       </c>
       <c r="G26" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W26" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="X26" t="n">
-        <v>2067.521868367084</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="Y26" t="n">
-        <v>1677.382536391272</v>
+        <v>1727.978001930925</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>763.3711884591467</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C27" t="n">
-        <v>588.9181591780197</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D27" t="n">
-        <v>439.9837495167684</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>309.9124705719282</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>171.8825830210898</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2264.126616492762</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2064.765293339931</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>1836.587789409646</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1601.435681177903</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1347.198324449701</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X27" t="n">
-        <v>1139.346824244169</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y27" t="n">
-        <v>931.5865254792147</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="C28" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D28" t="n">
-        <v>2440.987626628164</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E28" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>2294.097679130253</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>2147.159023177906</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>1988.51787073081</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>2440.987626628164</v>
+        <v>636.2666555642527</v>
       </c>
       <c r="T28" t="n">
-        <v>2440.987626628164</v>
+        <v>636.2666555642527</v>
       </c>
       <c r="U28" t="n">
-        <v>2440.987626628164</v>
+        <v>636.2666555642527</v>
       </c>
       <c r="V28" t="n">
-        <v>2440.987626628164</v>
+        <v>636.2666555642527</v>
       </c>
       <c r="W28" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="X28" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="Y28" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8494855272921</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1991.009791397003</v>
+        <v>1580.023886607396</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.047274456592</v>
+        <v>1211.061369666984</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F29" t="n">
         <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M29" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N29" t="n">
         <v>1672.394424063531</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>2356.76305864733</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>2356.76305864733</v>
       </c>
       <c r="X29" t="n">
-        <v>2440.987626628164</v>
+        <v>2356.76305864733</v>
       </c>
       <c r="Y29" t="n">
-        <v>2377.609631461125</v>
+        <v>1966.623726671518</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K30" t="n">
         <v>161.1406371339193</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D31" t="n">
-        <v>1849.169209479969</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E31" t="n">
-        <v>1849.169209479969</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F31" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G31" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>1894.037176271117</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.500649370103</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>2034.462268080657</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y31" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>476.2679713205548</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C32" t="n">
-        <v>378.3070564736033</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D32" t="n">
-        <v>378.3070564736033</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3070564736033</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6712,40 +6712,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2190.61837996229</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="U32" t="n">
-        <v>1936.838685974173</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="V32" t="n">
-        <v>1605.775798630602</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="W32" t="n">
-        <v>1253.007143360488</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="X32" t="n">
-        <v>1253.007143360488</v>
+        <v>1991.29559890076</v>
       </c>
       <c r="Y32" t="n">
-        <v>862.8678113846765</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.7751048338188</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C33" t="n">
-        <v>814.3220755526918</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="H33" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.976407531844</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2007.810361927064</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C34" t="n">
-        <v>2007.810361927064</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D34" t="n">
-        <v>2007.810361927064</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E34" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F34" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>1894.037176271117</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>2235.799912825081</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X34" t="n">
-        <v>2007.810361927064</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="Y34" t="n">
-        <v>2007.810361927064</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.781575849841</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.781575849841</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>969.8876744260972</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>584.0994218278529</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>173.1135170382453</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2222.089915442609</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1968.310221454492</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>1637.247334110921</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>1637.247334110921</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X35" t="n">
-        <v>1263.781575849841</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y35" t="n">
-        <v>1263.781575849841</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>890.3999085640012</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C36" t="n">
-        <v>715.9468792828742</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D36" t="n">
-        <v>567.0124696216229</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E36" t="n">
-        <v>407.7750146161674</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F36" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7043,25 +7043,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T37" t="n">
-        <v>2440.987626628164</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U37" t="n">
-        <v>2151.808539105556</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V37" t="n">
-        <v>2151.808539105556</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W37" t="n">
-        <v>2151.808539105556</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X37" t="n">
-        <v>2151.808539105556</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>2030.817674310208</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>868.9234423237272</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="C38" t="n">
-        <v>499.9609253833154</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="D38" t="n">
-        <v>499.9609253833154</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E38" t="n">
-        <v>499.9609253833154</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F38" t="n">
-        <v>88.97502059370788</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G38" t="n">
-        <v>88.97502059370788</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
-        <v>88.97502059370788</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7192,34 +7192,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894855</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894855</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="V38" t="n">
-        <v>2371.897027894855</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="W38" t="n">
-        <v>2019.12837262474</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="X38" t="n">
-        <v>1645.662614363661</v>
+        <v>2320.497095338043</v>
       </c>
       <c r="Y38" t="n">
-        <v>1255.523282387849</v>
+        <v>2320.497095338043</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>940.2321985945482</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C39" t="n">
-        <v>765.7791693134212</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D39" t="n">
-        <v>616.84475965217</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E39" t="n">
-        <v>457.6073046467145</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F39" t="n">
-        <v>311.0727466735995</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G39" t="n">
-        <v>173.0428591227611</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>66.44330766250937</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
         <v>112.9860412505444</v>
@@ -7280,25 +7280,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2440.987626628164</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T39" t="n">
-        <v>2241.626303475333</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.448799545047</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V39" t="n">
-        <v>1778.296691313305</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W39" t="n">
-        <v>1524.059334585103</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X39" t="n">
-        <v>1316.20783437957</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y39" t="n">
-        <v>1108.447535614616</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256328</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256328</v>
+        <v>217.0174985469644</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256328</v>
+        <v>66.90085913462872</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256328</v>
+        <v>66.90085913462872</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>554.0372213446176</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256328</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256328</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256328</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256328</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256328</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1369.576882096602</v>
+        <v>1847.907263698771</v>
       </c>
       <c r="C41" t="n">
-        <v>1369.576882096602</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D41" t="n">
-        <v>1369.576882096602</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>1369.576882096602</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,40 +7423,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2195.739836023147</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>1976.125231354834</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U41" t="n">
-        <v>1722.345537366716</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V41" t="n">
-        <v>1722.345537366716</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="W41" t="n">
-        <v>1369.576882096602</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="X41" t="n">
-        <v>1369.576882096602</v>
+        <v>1847.907263698771</v>
       </c>
       <c r="Y41" t="n">
-        <v>1369.576882096602</v>
+        <v>1847.907263698771</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F42" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G42" t="n">
-        <v>101.5297900452609</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
         <v>112.9860412505444</v>
@@ -7499,22 +7499,22 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S42" t="n">
         <v>2222.939999577549</v>
@@ -7523,10 +7523,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W42" t="n">
         <v>1306.011707534488</v>
@@ -7535,7 +7535,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="C43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="D43" t="n">
-        <v>512.7230087894206</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E43" t="n">
-        <v>364.8099152070275</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F43" t="n">
-        <v>217.9199677091171</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="W43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="X43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
       <c r="Y43" t="n">
-        <v>640.6381696807582</v>
+        <v>346.8095662305</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1767.317793702724</v>
+        <v>1580.023886607396</v>
       </c>
       <c r="C44" t="n">
-        <v>1398.355276762313</v>
+        <v>1211.061369666984</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.089578155562</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.089578155562</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F44" t="n">
-        <v>629.1036733659547</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61837996229</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.61837996229</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W44" t="n">
-        <v>2190.61837996229</v>
+        <v>1580.023886607396</v>
       </c>
       <c r="X44" t="n">
-        <v>2157.457125678536</v>
+        <v>1580.023886607396</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.317793702724</v>
+        <v>1580.023886607396</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>763.3711884591467</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C45" t="n">
-        <v>588.9181591780197</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D45" t="n">
-        <v>439.9837495167684</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
         <v>439.9837495167684</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2424.524347599889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2264.126616492762</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T45" t="n">
-        <v>2064.765293339931</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U45" t="n">
-        <v>1836.587789409646</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V45" t="n">
-        <v>1601.435681177903</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W45" t="n">
-        <v>1347.198324449701</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X45" t="n">
-        <v>1139.346824244169</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y45" t="n">
-        <v>931.5865254792147</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7845,13 +7845,13 @@
         <v>385.9536814748714</v>
       </c>
       <c r="W46" t="n">
-        <v>96.53651143791075</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
-        <v>233.1030882730269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617152</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
-        <v>74.42821185443489</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N33" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>287.1006199003857</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q39" t="n">
         <v>51.40241131725695</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119836</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104486</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>289.0552205769213</v>
+        <v>270.5941244656195</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.4795623923481</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.93133819686355</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>324.4511150549137</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.00546823003613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>106.2795475015858</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>9.48352105163039</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>101.3758817019184</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>117.3293034206858</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
@@ -23712,10 +23712,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.21378763870737</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.2133979068726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>106.2795475015856</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>135.5036967111017</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1626817966348</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.21998165381902</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>20.044150093848</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>66.55691803568394</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>105.1308741609316</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.2202692317593</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2202692317593</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>198.8908940169766</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>56.79796934660094</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.22964479606676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24414,13 +24414,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>139.7249216952741</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.1812305846894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>277.8624214638905</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>133.7441830823898</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24499,7 +24499,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>49.20615051753229</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>40.77475074606124</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.93994363196407</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24651,7 +24651,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>209.5501985012117</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24739,7 +24739,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>312.7696289150853</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>323.4937234406855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>11.62499163362418</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>42.01973253337192</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>268.2915860725256</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>141.9544518499701</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.20164229760275</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>105.1308741609317</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>83.38716167153959</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>4.828038410988171</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>290.9549624095067</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>69.10941729390808</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>31.88664755159495</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>105.1308741609316</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>139.7249216952741</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>98.80369720470097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.7215769743923</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>60.18023547601926</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.05747717687778</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>127.5207524868865</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25596,19 +25596,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>65.40012264862716</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>141.6715024212504</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>5.070241500248414</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H42" t="n">
-        <v>53.35061880807848</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>21.97946373578817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>148.4475406088498</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>293.2994802368546</v>
       </c>
       <c r="X44" t="n">
-        <v>336.9014589375523</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.7747507460614</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>255.2361976292615</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4700640727432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586965.1707766197</v>
+        <v>586965.1707766196</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="16">
@@ -26316,34 +26316,34 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049981</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="E2" t="n">
+        <v>379599.3508404951</v>
+      </c>
+      <c r="F2" t="n">
         <v>379599.3508404949</v>
-      </c>
-      <c r="F2" t="n">
-        <v>379599.350840495</v>
       </c>
       <c r="G2" t="n">
         <v>379599.3508404949</v>
       </c>
       <c r="H2" t="n">
+        <v>379599.3508404948</v>
+      </c>
+      <c r="I2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="K2" t="n">
         <v>379599.3508404949</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>379599.3508404949</v>
-      </c>
-      <c r="J2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="K2" t="n">
-        <v>379599.350840495</v>
-      </c>
-      <c r="L2" t="n">
-        <v>379599.3508404947</v>
       </c>
       <c r="M2" t="n">
         <v>379599.350840495</v>
@@ -26352,7 +26352,7 @@
         <v>379599.3508404949</v>
       </c>
       <c r="O2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.3508404951</v>
       </c>
       <c r="P2" t="n">
         <v>379599.3508404949</v>
@@ -26377,7 +26377,7 @@
         <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
-        <v>8.522183634340765e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
         <v>18029.85379262113</v>
@@ -26444,7 +26444,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
@@ -26490,25 +26490,25 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="O5" t="n">
         <v>44136.03802033843</v>
-      </c>
-      <c r="O5" t="n">
-        <v>44136.03802033842</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149818.3213342488</v>
+        <v>149818.3213342487</v>
       </c>
       <c r="C6" t="n">
-        <v>230587.7528657963</v>
+        <v>230587.7528657962</v>
       </c>
       <c r="D6" t="n">
-        <v>230587.7528657964</v>
+        <v>230587.7528657962</v>
       </c>
       <c r="E6" t="n">
-        <v>-52001.84010524469</v>
+        <v>-58970.76467897678</v>
       </c>
       <c r="F6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.5344538031</v>
       </c>
       <c r="G6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.5344538031</v>
       </c>
       <c r="H6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.534453803</v>
       </c>
       <c r="I6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.5344538032</v>
       </c>
       <c r="J6" t="n">
-        <v>254373.5164284292</v>
+        <v>247404.5918546969</v>
       </c>
       <c r="K6" t="n">
-        <v>317433.4590275355</v>
+        <v>310464.534453803</v>
       </c>
       <c r="L6" t="n">
-        <v>317433.4590275352</v>
+        <v>310464.5344538031</v>
       </c>
       <c r="M6" t="n">
-        <v>225419.2137464424</v>
+        <v>218450.2891727102</v>
       </c>
       <c r="N6" t="n">
-        <v>317433.4590275353</v>
+        <v>310464.5344538031</v>
       </c>
       <c r="O6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.5344538033</v>
       </c>
       <c r="P6" t="n">
-        <v>317433.4590275354</v>
+        <v>310464.5344538031</v>
       </c>
     </row>
   </sheetData>
@@ -26810,25 +26810,25 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="O4" t="n">
         <v>610.246906657041</v>
-      </c>
-      <c r="O4" t="n">
-        <v>610.2469066570409</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -26971,7 +26971,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>1.078150109664906e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.70629742131548</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>129.9371812137152</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,16 +27630,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>146.9179897405732</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>59.77390678149257</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>333.4992862499586</v>
+        <v>286.4728871394531</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>16.84720553688138</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>77.6452026817131</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>91.0829537758999</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35740,13 +35740,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36448,7 +36448,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>48.64100594280286</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37156,10 +37156,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N33" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>285.636118211264</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37791,7 +37791,7 @@
         <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419009</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563177</v>
@@ -37867,10 +37867,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781887</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997214.908862786</v>
+        <v>2032533.664188554</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914458</v>
+        <v>426806.9758914461</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>53.49507230234272</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>121.7578019472044</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>103.0088977318019</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>191.921076379427</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>83.51289199636497</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>74.04288593702813</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>174.0497804792065</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>94.67876730538809</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>287.6293164553135</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>56.22893659596764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>99.38758838776043</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>148.1945238187613</v>
       </c>
       <c r="V13" t="n">
-        <v>13.08993799274038</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>103.4698241248894</v>
+        <v>147.294382178755</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1663,19 +1663,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>165.4810623697079</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1745,7 +1745,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
-        <v>223.3170660977949</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>47.239591316294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>31.7431243875261</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>346.7947426164361</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>80.26150471621813</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>111.6321872928792</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>109.2563341216243</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.64958867533</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.11177630711067</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>91.38707715667915</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>197.3743085277825</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>78.51229435769994</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>38.97663790996523</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>44.41568638565896</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.23959131629395</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>127.5090357680867</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>103.6773230083246</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>47.61011138094006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>136.1433678062414</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>26.731109272536</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2642,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H27" t="n">
-        <v>56.32740542811688</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.327798975340468</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>59.19197445244119</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>14.98262955504962</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>85.16480783629031</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951727</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.7960563893071</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.6502057838264</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>75.46400677166039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>136.8956207165565</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>35.33191364804642</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.881616978049</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>145.4692693928244</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>133.757721462308</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>123.0508268606252</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,7 +3362,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3395,10 +3395,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>147.8477473493563</v>
       </c>
       <c r="T36" t="n">
-        <v>92.23683576037105</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>85.73493885277921</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>108.0529342638478</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>119.2856259772189</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.32610566273704</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>17.90029553604479</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>223.6013893497571</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>43.85257846779918</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>28.58965000103588</v>
       </c>
       <c r="G42" t="n">
-        <v>43.76331341951727</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>54.77015848782297</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>77.01231993920348</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>86.0538569219848</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>55.94148848055843</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9101608058062</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>31.28680070732945</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E2" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.1570697793896</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>73.31656967823568</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>73.31656967823568</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>605.9173685443436</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>605.9173685443436</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>398.1570697793896</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>348.0024326625565</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.4044113554191</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>133.4044113554191</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,10 +4655,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>133.4044113554191</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>133.4044113554191</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.4044113554191</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4710,22 +4710,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4886,40 +4886,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>889.2663616348502</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>687.0797669936162</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>458.8561487300053</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W9" t="n">
         <v>223.7040404982626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>913.7064744192123</v>
+        <v>1330.624241241738</v>
       </c>
       <c r="C11" t="n">
-        <v>818.0713559289213</v>
+        <v>1330.624241241738</v>
       </c>
       <c r="D11" t="n">
-        <v>459.8056573221708</v>
+        <v>1330.624241241738</v>
       </c>
       <c r="E11" t="n">
-        <v>459.8056573221708</v>
+        <v>1330.624241241738</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>919.63833645213</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>501.4506705227038</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5074,19 +5074,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1639.940887950406</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1287.172232680292</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>913.7064744192123</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y11" t="n">
-        <v>913.7064744192123</v>
+        <v>1717.224081305859</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C12" t="n">
-        <v>665.3876658914405</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D12" t="n">
         <v>665.3876658914405</v>
@@ -5120,52 +5120,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5223,28 +5223,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2850531957404</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.4849092659258</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="C14" t="n">
-        <v>571.5223923255141</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="D14" t="n">
-        <v>571.5223923255141</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="E14" t="n">
-        <v>571.5223923255141</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="F14" t="n">
-        <v>571.5223923255141</v>
+        <v>945.2769266239941</v>
       </c>
       <c r="G14" t="n">
-        <v>153.3347263960879</v>
+        <v>527.0892606945679</v>
       </c>
       <c r="H14" t="n">
-        <v>153.3347263960879</v>
+        <v>197.6019567535279</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U14" t="n">
-        <v>1717.224081305859</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.224081305859</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.224081305859</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.224081305859</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.084749330048</v>
+        <v>1356.262831413602</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U15" t="n">
-        <v>2052.412391590752</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.53651143791075</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C16" t="n">
-        <v>96.53651143791075</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D16" t="n">
         <v>48.81975253256327</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>608.5744076731561</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>608.5744076731561</v>
       </c>
       <c r="V16" t="n">
-        <v>385.9536814748714</v>
+        <v>608.5744076731561</v>
       </c>
       <c r="W16" t="n">
-        <v>96.53651143791075</v>
+        <v>608.5744076731561</v>
       </c>
       <c r="X16" t="n">
-        <v>96.53651143791075</v>
+        <v>380.5848567751387</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53651143791075</v>
+        <v>380.5848567751387</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1263.355201987353</v>
+        <v>1276.489283790395</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.355201987353</v>
+        <v>1276.489283790395</v>
       </c>
       <c r="D17" t="n">
-        <v>1263.355201987353</v>
+        <v>1276.489283790395</v>
       </c>
       <c r="E17" t="n">
-        <v>877.5669493891085</v>
+        <v>890.7010311921504</v>
       </c>
       <c r="F17" t="n">
-        <v>877.5669493891085</v>
+        <v>890.7010311921504</v>
       </c>
       <c r="G17" t="n">
-        <v>459.3792834596822</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H17" t="n">
-        <v>129.8919795186422</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5557,10 +5557,10 @@
         <v>2040.094374027286</v>
       </c>
       <c r="X17" t="n">
-        <v>2040.094374027286</v>
+        <v>1666.628615766206</v>
       </c>
       <c r="Y17" t="n">
-        <v>1649.955042051474</v>
+        <v>1276.489283790395</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450433</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E18" t="n">
-        <v>297.2095735395878</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F18" t="n">
         <v>186.8496400834017</v>
@@ -5609,7 +5609,7 @@
         <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P18" t="n">
         <v>2283.899498973758</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.0001539525012</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C19" t="n">
-        <v>62.06397102459425</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>204.3310521458872</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>204.3310521458872</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5712,13 +5712,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X19" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>540.4033113775685</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="C20" t="n">
-        <v>540.4033113775685</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="D20" t="n">
-        <v>540.4033113775685</v>
+        <v>856.4054880179881</v>
       </c>
       <c r="E20" t="n">
-        <v>540.4033113775685</v>
+        <v>470.6172354197438</v>
       </c>
       <c r="F20" t="n">
-        <v>540.4033113775685</v>
+        <v>470.6172354197438</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>470.6172354197438</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>141.1299314787038</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2241.619638216262</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U20" t="n">
-        <v>1987.839944228145</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.777056884574</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W20" t="n">
-        <v>1304.00840161446</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X20" t="n">
-        <v>930.5426433533802</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.4033113775685</v>
+        <v>1214.671186624739</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>438.9210007489305</v>
       </c>
       <c r="F21" t="n">
-        <v>292.3864427758155</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3565552249771</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5831,7 +5831,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
         <v>161.1406371339193</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5940,22 +5940,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>592.9214107754108</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U22" t="n">
-        <v>592.9214107754108</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V22" t="n">
-        <v>338.2369225695239</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1266.560789373247</v>
+        <v>1701.619131293927</v>
       </c>
       <c r="C23" t="n">
-        <v>897.5982724328353</v>
+        <v>1332.656614353516</v>
       </c>
       <c r="D23" t="n">
-        <v>539.3325738260849</v>
+        <v>974.3909157467654</v>
       </c>
       <c r="E23" t="n">
-        <v>153.5443212278406</v>
+        <v>588.6026631485211</v>
       </c>
       <c r="F23" t="n">
-        <v>153.5443212278406</v>
+        <v>177.6167583589135</v>
       </c>
       <c r="G23" t="n">
-        <v>153.5443212278406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>153.5443212278406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6007,7 +6007,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6016,25 +6016,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2005.929284707483</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2005.929284707483</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>1653.160629437369</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X23" t="n">
-        <v>1653.160629437369</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="Y23" t="n">
-        <v>1653.160629437369</v>
+        <v>2088.218971358049</v>
       </c>
     </row>
     <row r="24">
@@ -6080,7 +6080,7 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O24" t="n">
         <v>1970.07121469245</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>266.0109893060263</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.91077412947243</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.91077412947243</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6174,25 +6174,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1341.378161866803</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C26" t="n">
-        <v>1341.378161866803</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D26" t="n">
-        <v>983.1124632600529</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E26" t="n">
-        <v>597.3242106618086</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>186.338305872201</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U26" t="n">
-        <v>2118.117333906737</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V26" t="n">
-        <v>2118.117333906737</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W26" t="n">
-        <v>2118.117333906737</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X26" t="n">
-        <v>2118.117333906737</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y26" t="n">
-        <v>1727.978001930925</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C27" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D27" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E27" t="n">
-        <v>456.4470285450433</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F27" t="n">
-        <v>309.9124705719282</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G27" t="n">
-        <v>171.8825830210898</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
         <v>2283.899498973758</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S27" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W27" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>346.8494855272921</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="C28" t="n">
-        <v>346.8494855272921</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="D28" t="n">
-        <v>196.7328461149564</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6411,25 +6411,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>636.2666555642527</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>636.2666555642527</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U28" t="n">
-        <v>636.2666555642527</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V28" t="n">
-        <v>636.2666555642527</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W28" t="n">
-        <v>346.8494855272921</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="X28" t="n">
-        <v>346.8494855272921</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="Y28" t="n">
-        <v>346.8494855272921</v>
+        <v>364.8099152070275</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.023886607396</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C29" t="n">
-        <v>1211.061369666984</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D29" t="n">
-        <v>852.7956710602338</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E29" t="n">
-        <v>467.0074184619895</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
         <v>1672.394424063531</v>
@@ -6493,22 +6493,22 @@
         <v>2371.897027894855</v>
       </c>
       <c r="T29" t="n">
-        <v>2371.897027894855</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U29" t="n">
-        <v>2371.897027894855</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="V29" t="n">
-        <v>2356.76305864733</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="W29" t="n">
-        <v>2356.76305864733</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="X29" t="n">
-        <v>2356.76305864733</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="Y29" t="n">
-        <v>1966.623726671518</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439335</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628066</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015553</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960998</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298476</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G30" t="n">
         <v>48.81975253256328</v>
@@ -6545,49 +6545,49 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C31" t="n">
-        <v>640.6381696807582</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="D31" t="n">
-        <v>490.5215302684225</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="E31" t="n">
-        <v>342.6084366860293</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="F31" t="n">
-        <v>207.4609049796586</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="G31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256328</v>
@@ -6660,13 +6660,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X31" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1214.556426860827</v>
+        <v>1358.051735581536</v>
       </c>
       <c r="C32" t="n">
-        <v>845.5939099204151</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D32" t="n">
         <v>845.5939099204151</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>2364.76135716184</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.76135716184</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W32" t="n">
-        <v>2364.76135716184</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.29559890076</v>
+        <v>1744.651575645657</v>
       </c>
       <c r="Y32" t="n">
-        <v>1601.156266924949</v>
+        <v>1744.651575645657</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>779.834467487422</v>
       </c>
       <c r="C33" t="n">
-        <v>605.381438206295</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>456.4470285450437</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>297.2095735395882</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>150.6750155664732</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>150.6750155664732</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256328</v>
@@ -6788,7 +6788,7 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.7328461149564</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="C34" t="n">
-        <v>196.7328461149564</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="D34" t="n">
-        <v>196.7328461149564</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256328</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256328</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256328</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256328</v>
@@ -6900,10 +6900,10 @@
         <v>640.6381696807582</v>
       </c>
       <c r="X34" t="n">
-        <v>417.5254252584865</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.7328461149564</v>
+        <v>493.6995137284104</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1328.153373032848</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="C35" t="n">
-        <v>1328.153373032848</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D35" t="n">
-        <v>969.8876744260972</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>584.0994218278529</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>173.1135170382453</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256327</v>
@@ -6943,13 +6943,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6973,16 +6973,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2440.987626628164</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.218971358049</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X35" t="n">
-        <v>1714.753213096969</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y35" t="n">
-        <v>1714.753213096969</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>733.2411437123158</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1406371339193</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7043,25 +7043,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2383.337730684675</v>
+        <v>2233.996571745931</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.169209714603</v>
+        <v>2034.6352485931</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1806.457744662815</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1571.305636431072</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1317.068279702871</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1109.216779497338</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>901.4564807323839</v>
       </c>
     </row>
     <row r="37">
@@ -7122,22 +7122,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W37" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256327</v>
+        <v>157.964130576854</v>
       </c>
       <c r="Y37" t="n">
         <v>48.81975253256327</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2320.497095338043</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C38" t="n">
-        <v>1951.534578397632</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D38" t="n">
-        <v>1593.268879790881</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E38" t="n">
-        <v>1207.480627192637</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2320.497095338043</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2320.497095338043</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>2320.497095338043</v>
+        <v>2322.072678740574</v>
       </c>
       <c r="V38" t="n">
-        <v>2320.497095338043</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="W38" t="n">
-        <v>2320.497095338043</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="X38" t="n">
-        <v>2320.497095338043</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="Y38" t="n">
-        <v>2320.497095338043</v>
+        <v>1991.009791397003</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7271,34 +7271,34 @@
         <v>2158.207869599013</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C40" t="n">
-        <v>217.0174985469644</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="D40" t="n">
-        <v>66.90085913462872</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="E40" t="n">
-        <v>66.90085913462872</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>182.3588669815966</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7365,19 +7365,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V40" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W40" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X40" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1847.907263698771</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C41" t="n">
-        <v>1622.047274456592</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
         <v>412.307967997759</v>
@@ -7423,40 +7423,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2396.692092822306</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2215.413444889742</v>
       </c>
       <c r="T41" t="n">
-        <v>2221.373021959851</v>
+        <v>1995.798840221428</v>
       </c>
       <c r="U41" t="n">
-        <v>2221.373021959851</v>
+        <v>1995.798840221428</v>
       </c>
       <c r="V41" t="n">
-        <v>2221.373021959851</v>
+        <v>1995.798840221428</v>
       </c>
       <c r="W41" t="n">
-        <v>2221.373021959851</v>
+        <v>1995.798840221428</v>
       </c>
       <c r="X41" t="n">
-        <v>1847.907263698771</v>
+        <v>1622.333081960349</v>
       </c>
       <c r="Y41" t="n">
-        <v>1847.907263698771</v>
+        <v>1232.193749984537</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628066</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015553</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960998</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298476</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309282</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
         <v>2222.939999577549</v>
@@ -7523,10 +7523,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
         <v>1306.011707534488</v>
@@ -7535,7 +7535,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D43" t="n">
-        <v>346.8095662305</v>
+        <v>262.7842973916009</v>
       </c>
       <c r="E43" t="n">
-        <v>346.8095662305</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F43" t="n">
-        <v>346.8095662305</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G43" t="n">
-        <v>346.8095662305</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y43" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1580.023886607396</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C44" t="n">
-        <v>1211.061369666984</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="D44" t="n">
-        <v>852.7956710602338</v>
+        <v>932.5169977203998</v>
       </c>
       <c r="E44" t="n">
-        <v>467.0074184619895</v>
+        <v>546.7287451221555</v>
       </c>
       <c r="F44" t="n">
-        <v>467.0074184619895</v>
+        <v>135.7428403325479</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>135.7428403325479</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>135.7428403325479</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,13 +7660,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
@@ -7678,22 +7678,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>1636.530440628162</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W44" t="n">
-        <v>1580.023886607396</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X44" t="n">
-        <v>1580.023886607396</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.023886607396</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E46" t="n">
-        <v>354.3508524775689</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="V46" t="n">
-        <v>385.9536814748714</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="W46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="X46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.3508524775689</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K36" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>287.1006199003852</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>434.3429150104486</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>270.5941244656195</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>38.56311444631604</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.4795623923481</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>48.05747717687832</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23463,7 +23463,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
@@ -23472,13 +23472,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.0927728286203</v>
       </c>
       <c r="V13" t="n">
-        <v>239.0477053310876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.00546823003613</v>
+        <v>13.18091017617053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.05212128015944</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9.48352105163039</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>101.3758817019184</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,19 +23706,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>193.7167361605272</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>67.21104665369592</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.21378763870737</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>35.81287827175962</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>135.5036967111017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>3.098554305433595</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>69.08821519824635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>20.044150093848</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>66.55691803568394</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>66.55691803568394</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>122.8311347129689</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24180,16 +24180,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>178.2202692317593</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>286.4967535020452</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>56.79796934660094</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>90.34506325739295</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24414,13 +24414,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.7249216952741</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>277.8624214638905</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>41.6685834734403</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24499,7 +24499,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H27" t="n">
-        <v>49.20615051753229</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24651,7 +24651,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>209.5501985012117</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>227.3310238841498</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>312.7696289150853</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>301.0731308197633</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581273</v>
+        <v>35.81287827175917</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>11.62499163362418</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>35.27879948329422</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.6226859871812</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>141.9544518499701</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>35.81287827175922</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.20164229760275</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>4.828038410988171</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.11538395927042</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>231.5151703086996</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>290.9549624095067</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25213,13 +25213,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>10.94600644669845</v>
       </c>
       <c r="T36" t="n">
-        <v>105.1308741609316</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>139.7249216952741</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>110.531719088247</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.18023547601926</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>201.9157913854992</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>127.5207524868865</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>24.85101761808124</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25605,10 +25605,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>141.6715024212504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>24.54711427817712</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>116.479562392348</v>
       </c>
       <c r="G42" t="n">
-        <v>92.88627525581273</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>91.6638041587462</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>148.4475406088498</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>74.4214354329407</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>293.2994802368546</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26070,10 +26070,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>70.96783667074598</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
@@ -26082,10 +26082,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>255.2361976292615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586965.1707766197</v>
+        <v>586965.1707766198</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>586965.1707766197</v>
+        <v>586965.1707766198</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>586965.1707766196</v>
+        <v>586965.1707766197</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586965.1707766197</v>
+        <v>586965.1707766196</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="F2" t="n">
         <v>379599.3508404951</v>
       </c>
-      <c r="F2" t="n">
-        <v>379599.3508404949</v>
-      </c>
       <c r="G2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="H2" t="n">
-        <v>379599.3508404948</v>
+        <v>379599.3508404951</v>
       </c>
       <c r="I2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="J2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="K2" t="n">
+        <v>379599.3508404951</v>
+      </c>
+      <c r="L2" t="n">
         <v>379599.350840495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="L2" t="n">
-        <v>379599.3508404949</v>
       </c>
       <c r="M2" t="n">
         <v>379599.350840495</v>
@@ -26352,7 +26352,7 @@
         <v>379599.3508404949</v>
       </c>
       <c r="O2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="P2" t="n">
         <v>379599.3508404949</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>18029.85379262113</v>
@@ -26444,7 +26444,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262112</v>
+        <v>18029.85379262113</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
@@ -26459,7 +26459,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="P4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="K5" t="n">
         <v>44136.03802033843</v>
@@ -26508,7 +26508,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149818.3213342487</v>
+        <v>149818.3213342485</v>
       </c>
       <c r="C6" t="n">
-        <v>230587.7528657962</v>
+        <v>230587.7528657963</v>
       </c>
       <c r="D6" t="n">
-        <v>230587.7528657962</v>
+        <v>230587.7528657964</v>
       </c>
       <c r="E6" t="n">
-        <v>-58970.76467897678</v>
+        <v>-52698.73256261786</v>
       </c>
       <c r="F6" t="n">
-        <v>310464.5344538031</v>
+        <v>316736.5665701624</v>
       </c>
       <c r="G6" t="n">
-        <v>310464.5344538031</v>
+        <v>316736.5665701622</v>
       </c>
       <c r="H6" t="n">
-        <v>310464.534453803</v>
+        <v>316736.5665701624</v>
       </c>
       <c r="I6" t="n">
-        <v>310464.5344538032</v>
+        <v>316736.5665701623</v>
       </c>
       <c r="J6" t="n">
-        <v>247404.5918546969</v>
+        <v>253676.6239710558</v>
       </c>
       <c r="K6" t="n">
-        <v>310464.534453803</v>
+        <v>316736.5665701623</v>
       </c>
       <c r="L6" t="n">
-        <v>310464.5344538031</v>
+        <v>316736.5665701622</v>
       </c>
       <c r="M6" t="n">
-        <v>218450.2891727102</v>
+        <v>224722.3212890691</v>
       </c>
       <c r="N6" t="n">
-        <v>310464.5344538031</v>
+        <v>316736.5665701621</v>
       </c>
       <c r="O6" t="n">
-        <v>310464.5344538033</v>
+        <v>316736.5665701623</v>
       </c>
       <c r="P6" t="n">
-        <v>310464.5344538031</v>
+        <v>316736.5665701622</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="K4" t="n">
         <v>610.246906657041</v>
@@ -26828,7 +26828,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>35.90156054907236</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>129.9371812137152</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>333.8979464799388</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>312.2938397833332</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2443095168949</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>59.77390678149257</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.4728871394531</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>298.4174780758968</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>97.64028516680969</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>77.6452026817131</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>181.40617179047</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q18" t="n">
         <v>158.6748764185921</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36448,10 +36448,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P24" t="n">
         <v>316.9982669508155</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36685,13 +36685,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185921</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K36" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>285.6361182112636</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37861,13 +37861,13 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>468.0345334781887</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
